--- a/similarities/split_global/harmonic_similarity_timestamps_67.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:02:01.080000', '0:02:02.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.540000', '0:00:27.180000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.898503', '0:00:16.109841')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=17.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=9.898503']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.076000', '0:00:50.260000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D'], ['A', 'D', 'A']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab:7', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709'), ('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:01:17.680000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:21.850000', '0:01:27.540000'), ('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:59.260000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:24.640000', '0:00:33')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:49.470000', '0:00:56.190000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:20.390000', '0:00:26.650000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=49.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=20.39']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:10.200000', '0:00:14.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:00:04.605000', '0:00:21.095000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F#', 'B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:02:32.583174', '0:02:37.900544')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:07.702000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=152.583174</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:01:27.280000', '0:01:32.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:01:43.660000', '0:01:50.880000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=103.66</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.800000', '0:01:09.040000'), ('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984'), ('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:00.240000', '0:00:08.180000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:12.094553', '0:00:16.853782')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['A#:maj', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:01:02.280000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:06.160000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=6.16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
